--- a/LPL_CHINA_2019.xlsx
+++ b/LPL_CHINA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C639768D-B44B-42BB-8210-816DB1DEE00B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965436BB-FF27-4C7E-A4FF-ABB71C1CA214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="101">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4453,36 +4453,92 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="46"/>
-      <c r="B278" s="46"/>
+      <c r="A278" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B278" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C278" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="46"/>
-      <c r="B279" s="46"/>
+      <c r="A279" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B279" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C279" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="46"/>
-      <c r="B280" s="46"/>
+      <c r="A280" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B280" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C280" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="46"/>
-      <c r="B281" s="46"/>
+      <c r="A281" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B281" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C281" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="46"/>
-      <c r="B282" s="46"/>
+      <c r="A282" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B282" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C282" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="46"/>
-      <c r="B283" s="46"/>
+      <c r="A283" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B283" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C283" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="46"/>
-      <c r="B284" s="46"/>
+      <c r="A284" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B284" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C284" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="46"/>
-      <c r="B285" s="46"/>
+      <c r="A285" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B285" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C285" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="46"/>

--- a/LPL_CHINA_2019.xlsx
+++ b/LPL_CHINA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965436BB-FF27-4C7E-A4FF-ABB71C1CA214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A955B530-17FF-4A9C-BF21-2B149A4383A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="101">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -905,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,6 +1109,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1399,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D282" sqref="D282"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D277" sqref="D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4409,21 +4412,21 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="46" t="s">
+      <c r="A274" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B274" s="46" t="s">
+      <c r="B274" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C274" s="81">
+      <c r="C274" s="79">
         <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="46" t="s">
+      <c r="A275" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="B275" s="46" t="s">
+      <c r="B275" s="95" t="s">
         <v>87</v>
       </c>
       <c r="C275" s="81">
@@ -4431,10 +4434,10 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="46" t="s">
+      <c r="A276" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B276" s="46" t="s">
+      <c r="B276" s="95" t="s">
         <v>96</v>
       </c>
       <c r="C276" s="81">
@@ -4442,10 +4445,10 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="46" t="s">
+      <c r="A277" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B277" s="46" t="s">
+      <c r="B277" s="95" t="s">
         <v>96</v>
       </c>
       <c r="C277" s="81">
@@ -4453,10 +4456,10 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="46" t="s">
+      <c r="A278" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B278" s="46" t="s">
+      <c r="B278" s="95" t="s">
         <v>95</v>
       </c>
       <c r="C278" s="81">
@@ -4464,10 +4467,10 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="46" t="s">
+      <c r="A279" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B279" s="46" t="s">
+      <c r="B279" s="95" t="s">
         <v>95</v>
       </c>
       <c r="C279" s="81">
@@ -4475,10 +4478,10 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="46" t="s">
+      <c r="A280" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B280" s="46" t="s">
+      <c r="B280" s="95" t="s">
         <v>90</v>
       </c>
       <c r="C280" s="81">
@@ -4486,10 +4489,10 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="46" t="s">
+      <c r="A281" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B281" s="46" t="s">
+      <c r="B281" s="95" t="s">
         <v>90</v>
       </c>
       <c r="C281" s="81">
@@ -4497,10 +4500,10 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="46" t="s">
+      <c r="A282" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B282" s="46" t="s">
+      <c r="B282" s="95" t="s">
         <v>85</v>
       </c>
       <c r="C282" s="81">
@@ -4508,10 +4511,10 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="46" t="s">
+      <c r="A283" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B283" s="46" t="s">
+      <c r="B283" s="95" t="s">
         <v>88</v>
       </c>
       <c r="C283" s="81">
@@ -4519,10 +4522,10 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="46" t="s">
+      <c r="A284" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B284" s="46" t="s">
+      <c r="B284" s="95" t="s">
         <v>88</v>
       </c>
       <c r="C284" s="81">
@@ -4530,10 +4533,10 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="46" t="s">
+      <c r="A285" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B285" s="46" t="s">
+      <c r="B285" s="95" t="s">
         <v>84</v>
       </c>
       <c r="C285" s="81">
@@ -4541,78 +4544,127 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="46"/>
-      <c r="B286" s="46"/>
+      <c r="A286" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B286" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C286" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="46"/>
-      <c r="B287" s="46"/>
+      <c r="A287" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B287" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C287" s="81">
+        <v>9</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="46"/>
-      <c r="B288" s="46"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="46"/>
-      <c r="B289" s="46"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="46"/>
-      <c r="B290" s="46"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="46"/>
-      <c r="B291" s="46"/>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="46"/>
-      <c r="B292" s="46"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B288" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C288" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B289" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C289" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B290" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C290" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B291" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C291" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B292" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C292" s="84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="46"/>
       <c r="B293" s="46"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="46"/>
       <c r="B294" s="46"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="46"/>
       <c r="B295" s="46"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="46"/>
       <c r="B296" s="46"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="46"/>
       <c r="B297" s="46"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="46"/>
       <c r="B298" s="46"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="46"/>
       <c r="B299" s="46"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="46"/>
       <c r="B300" s="46"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="46"/>
       <c r="B301" s="46"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="46"/>
       <c r="B302" s="46"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="46"/>
       <c r="B303" s="46"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="46"/>
       <c r="B304" s="46"/>
     </row>

--- a/LPL_CHINA_2019.xlsx
+++ b/LPL_CHINA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A955B530-17FF-4A9C-BF21-2B149A4383A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D6E4D0-A2BD-4AA5-95C3-6402A4F5D02A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="101">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -905,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,9 +1109,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1402,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D277" sqref="D277"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4426,7 +4423,7 @@
       <c r="A275" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="B275" s="95" t="s">
+      <c r="B275" s="46" t="s">
         <v>87</v>
       </c>
       <c r="C275" s="81">
@@ -4437,7 +4434,7 @@
       <c r="A276" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B276" s="95" t="s">
+      <c r="B276" s="46" t="s">
         <v>96</v>
       </c>
       <c r="C276" s="81">
@@ -4448,7 +4445,7 @@
       <c r="A277" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B277" s="95" t="s">
+      <c r="B277" s="46" t="s">
         <v>96</v>
       </c>
       <c r="C277" s="81">
@@ -4459,7 +4456,7 @@
       <c r="A278" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B278" s="95" t="s">
+      <c r="B278" s="46" t="s">
         <v>95</v>
       </c>
       <c r="C278" s="81">
@@ -4470,7 +4467,7 @@
       <c r="A279" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B279" s="95" t="s">
+      <c r="B279" s="46" t="s">
         <v>95</v>
       </c>
       <c r="C279" s="81">
@@ -4481,7 +4478,7 @@
       <c r="A280" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B280" s="95" t="s">
+      <c r="B280" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C280" s="81">
@@ -4492,7 +4489,7 @@
       <c r="A281" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B281" s="95" t="s">
+      <c r="B281" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C281" s="81">
@@ -4503,7 +4500,7 @@
       <c r="A282" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B282" s="95" t="s">
+      <c r="B282" s="46" t="s">
         <v>85</v>
       </c>
       <c r="C282" s="81">
@@ -4514,7 +4511,7 @@
       <c r="A283" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B283" s="95" t="s">
+      <c r="B283" s="46" t="s">
         <v>88</v>
       </c>
       <c r="C283" s="81">
@@ -4525,7 +4522,7 @@
       <c r="A284" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B284" s="95" t="s">
+      <c r="B284" s="46" t="s">
         <v>88</v>
       </c>
       <c r="C284" s="81">
@@ -4536,7 +4533,7 @@
       <c r="A285" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B285" s="95" t="s">
+      <c r="B285" s="46" t="s">
         <v>84</v>
       </c>
       <c r="C285" s="81">
@@ -4547,7 +4544,7 @@
       <c r="A286" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B286" s="95" t="s">
+      <c r="B286" s="46" t="s">
         <v>92</v>
       </c>
       <c r="C286" s="81">
@@ -4558,7 +4555,7 @@
       <c r="A287" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B287" s="95" t="s">
+      <c r="B287" s="46" t="s">
         <v>92</v>
       </c>
       <c r="C287" s="81">
@@ -4569,7 +4566,7 @@
       <c r="A288" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="B288" s="95" t="s">
+      <c r="B288" s="46" t="s">
         <v>93</v>
       </c>
       <c r="C288" s="81">
@@ -4580,7 +4577,7 @@
       <c r="A289" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="B289" s="95" t="s">
+      <c r="B289" s="46" t="s">
         <v>93</v>
       </c>
       <c r="C289" s="81">
@@ -4591,7 +4588,7 @@
       <c r="A290" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="B290" s="95" t="s">
+      <c r="B290" s="46" t="s">
         <v>94</v>
       </c>
       <c r="C290" s="81">
@@ -4602,7 +4599,7 @@
       <c r="A291" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="B291" s="95" t="s">
+      <c r="B291" s="46" t="s">
         <v>98</v>
       </c>
       <c r="C291" s="81">
@@ -4621,32 +4618,81 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="46"/>
-      <c r="B293" s="46"/>
+      <c r="A293" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B293" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C293" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="46"/>
-      <c r="B294" s="46"/>
+      <c r="A294" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B294" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C294" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="46"/>
-      <c r="B295" s="46"/>
+      <c r="A295" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B295" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C295" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="46"/>
-      <c r="B296" s="46"/>
+      <c r="A296" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B296" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C296" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="46"/>
-      <c r="B297" s="46"/>
+      <c r="A297" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B297" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C297" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="46"/>
-      <c r="B298" s="46"/>
+      <c r="A298" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B298" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C298" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="46"/>
-      <c r="B299" s="46"/>
+      <c r="A299" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B299" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C299" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="46"/>

--- a/LPL_CHINA_2019.xlsx
+++ b/LPL_CHINA_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D6E4D0-A2BD-4AA5-95C3-6402A4F5D02A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8AB622-92BB-4893-9A57-A0DEB1925647}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="101">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:C363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F298" sqref="F298"/>
+      <selection activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4695,24 +4695,59 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="46"/>
-      <c r="B300" s="46"/>
+      <c r="A300" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B300" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C300" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="46"/>
-      <c r="B301" s="46"/>
+      <c r="A301" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B301" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C301" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="46"/>
-      <c r="B302" s="46"/>
+      <c r="A302" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B302" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C302" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="46"/>
-      <c r="B303" s="46"/>
+      <c r="A303" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B303" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C303" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="46"/>
-      <c r="B304" s="46"/>
+      <c r="A304" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B304" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C304" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="46"/>

--- a/LPL_CHINA_2019.xlsx
+++ b/LPL_CHINA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8AB622-92BB-4893-9A57-A0DEB1925647}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A0BFBD-D864-45AA-BF95-F20EA6C49224}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="101">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:C363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F302" sqref="F302"/>
+      <selection activeCell="F304" sqref="F304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4749,67 +4749,88 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="46"/>
-      <c r="B305" s="46"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="46"/>
-      <c r="B306" s="46"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="46"/>
-      <c r="B307" s="46"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B305" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C305" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B306" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C306" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B307" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C307" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="46"/>
       <c r="B308" s="46"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="46"/>
       <c r="B309" s="46"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="46"/>
       <c r="B310" s="46"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="46"/>
       <c r="B311" s="46"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="46"/>
       <c r="B312" s="46"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="46"/>
       <c r="B313" s="46"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="46"/>
       <c r="B314" s="46"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="46"/>
       <c r="B315" s="46"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="46"/>
       <c r="B316" s="46"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="46"/>
       <c r="B317" s="46"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="46"/>
       <c r="B318" s="46"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="46"/>
       <c r="B319" s="46"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="46"/>
       <c r="B320" s="46"/>
     </row>

--- a/LPL_CHINA_2019.xlsx
+++ b/LPL_CHINA_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A0BFBD-D864-45AA-BF95-F20EA6C49224}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20576F6-3911-488F-8C50-38FAC4DFD856}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="101">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F304" sqref="F304"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H313" sqref="H313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4783,40 +4783,103 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="46"/>
-      <c r="B308" s="46"/>
+      <c r="A308" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B308" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C308" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="46"/>
-      <c r="B309" s="46"/>
+      <c r="A309" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B309" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C309" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="46"/>
-      <c r="B310" s="46"/>
+      <c r="A310" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B310" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C310" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="46"/>
-      <c r="B311" s="46"/>
+      <c r="A311" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B311" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C311" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="46"/>
-      <c r="B312" s="46"/>
+      <c r="A312" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B312" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C312" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="46"/>
-      <c r="B313" s="46"/>
+      <c r="A313" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B313" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C313" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="46"/>
-      <c r="B314" s="46"/>
+      <c r="A314" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B314" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C314" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="46"/>
-      <c r="B315" s="46"/>
+      <c r="A315" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B315" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C315" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="46"/>
-      <c r="B316" s="46"/>
+      <c r="A316" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B316" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C316" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="46"/>

--- a/LPL_CHINA_2019.xlsx
+++ b/LPL_CHINA_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20576F6-3911-488F-8C50-38FAC4DFD856}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F5807-0E3D-4174-89B2-164ACECA2EEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="101">
   <si>
     <t xml:space="preserve">       Semana 1</t>
   </si>
@@ -905,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,6 +1109,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1399,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H313" sqref="H313"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E321" sqref="E321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4618,21 +4621,21 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="46" t="s">
+      <c r="A293" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B293" s="46" t="s">
+      <c r="B293" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="C293" s="81">
+      <c r="C293" s="79">
         <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="46" t="s">
+      <c r="A294" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B294" s="46" t="s">
+      <c r="B294" s="95" t="s">
         <v>97</v>
       </c>
       <c r="C294" s="81">
@@ -4640,10 +4643,10 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="46" t="s">
+      <c r="A295" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B295" s="46" t="s">
+      <c r="B295" s="95" t="s">
         <v>97</v>
       </c>
       <c r="C295" s="81">
@@ -4651,10 +4654,10 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="46" t="s">
+      <c r="A296" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="B296" s="46" t="s">
+      <c r="B296" s="95" t="s">
         <v>98</v>
       </c>
       <c r="C296" s="81">
@@ -4662,10 +4665,10 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="46" t="s">
+      <c r="A297" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B297" s="46" t="s">
+      <c r="B297" s="95" t="s">
         <v>88</v>
       </c>
       <c r="C297" s="81">
@@ -4673,10 +4676,10 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="46" t="s">
+      <c r="A298" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B298" s="46" t="s">
+      <c r="B298" s="95" t="s">
         <v>88</v>
       </c>
       <c r="C298" s="81">
@@ -4684,10 +4687,10 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="46" t="s">
+      <c r="A299" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B299" s="46" t="s">
+      <c r="B299" s="95" t="s">
         <v>88</v>
       </c>
       <c r="C299" s="81">
@@ -4695,10 +4698,10 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="46" t="s">
+      <c r="A300" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B300" s="46" t="s">
+      <c r="B300" s="95" t="s">
         <v>99</v>
       </c>
       <c r="C300" s="81">
@@ -4706,10 +4709,10 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="46" t="s">
+      <c r="A301" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B301" s="46" t="s">
+      <c r="B301" s="95" t="s">
         <v>99</v>
       </c>
       <c r="C301" s="81">
@@ -4717,10 +4720,10 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="46" t="s">
+      <c r="A302" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B302" s="46" t="s">
+      <c r="B302" s="95" t="s">
         <v>99</v>
       </c>
       <c r="C302" s="81">
@@ -4728,10 +4731,10 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="46" t="s">
+      <c r="A303" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="B303" s="46" t="s">
+      <c r="B303" s="95" t="s">
         <v>98</v>
       </c>
       <c r="C303" s="81">
@@ -4739,10 +4742,10 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="46" t="s">
+      <c r="A304" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="B304" s="46" t="s">
+      <c r="B304" s="95" t="s">
         <v>98</v>
       </c>
       <c r="C304" s="81">
@@ -4750,10 +4753,10 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="46" t="s">
+      <c r="A305" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B305" s="46" t="s">
+      <c r="B305" s="95" t="s">
         <v>89</v>
       </c>
       <c r="C305" s="81">
@@ -4761,10 +4764,10 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="46" t="s">
+      <c r="A306" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B306" s="46" t="s">
+      <c r="B306" s="95" t="s">
         <v>89</v>
       </c>
       <c r="C306" s="81">
@@ -4772,10 +4775,10 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="46" t="s">
+      <c r="A307" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B307" s="46" t="s">
+      <c r="B307" s="95" t="s">
         <v>89</v>
       </c>
       <c r="C307" s="81">
@@ -4783,10 +4786,10 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="46" t="s">
+      <c r="A308" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="95" t="s">
         <v>86</v>
       </c>
       <c r="C308" s="81">
@@ -4794,10 +4797,10 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="46" t="s">
+      <c r="A309" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B309" s="46" t="s">
+      <c r="B309" s="95" t="s">
         <v>86</v>
       </c>
       <c r="C309" s="81">
@@ -4805,10 +4808,10 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="46" t="s">
+      <c r="A310" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B310" s="46" t="s">
+      <c r="B310" s="95" t="s">
         <v>86</v>
       </c>
       <c r="C310" s="81">
@@ -4816,10 +4819,10 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="46" t="s">
+      <c r="A311" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B311" s="46" t="s">
+      <c r="B311" s="95" t="s">
         <v>98</v>
       </c>
       <c r="C311" s="81">
@@ -4827,10 +4830,10 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="46" t="s">
+      <c r="A312" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B312" s="46" t="s">
+      <c r="B312" s="95" t="s">
         <v>98</v>
       </c>
       <c r="C312" s="81">
@@ -4838,10 +4841,10 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="46" t="s">
+      <c r="A313" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B313" s="46" t="s">
+      <c r="B313" s="95" t="s">
         <v>85</v>
       </c>
       <c r="C313" s="81">
@@ -4849,10 +4852,10 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="46" t="s">
+      <c r="A314" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B314" s="46" t="s">
+      <c r="B314" s="95" t="s">
         <v>85</v>
       </c>
       <c r="C314" s="81">
@@ -4860,10 +4863,10 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="46" t="s">
+      <c r="A315" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B315" s="46" t="s">
+      <c r="B315" s="95" t="s">
         <v>85</v>
       </c>
       <c r="C315" s="81">
@@ -4871,10 +4874,10 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="46" t="s">
+      <c r="A316" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B316" s="46" t="s">
+      <c r="B316" s="95" t="s">
         <v>84</v>
       </c>
       <c r="C316" s="81">
@@ -4882,82 +4885,131 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="46"/>
-      <c r="B317" s="46"/>
+      <c r="A317" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B317" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C317" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="46"/>
-      <c r="B318" s="46"/>
+      <c r="A318" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B318" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C318" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="46"/>
-      <c r="B319" s="46"/>
+      <c r="A319" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B319" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C319" s="81">
+        <v>-1</v>
+      </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="46"/>
-      <c r="B320" s="46"/>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="46"/>
-      <c r="B321" s="46"/>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="46"/>
-      <c r="B322" s="46"/>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="46"/>
-      <c r="B323" s="46"/>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B320" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C320" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B321" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C321" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B322" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C322" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="B323" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C323" s="84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="46"/>
       <c r="B324" s="46"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="46"/>
       <c r="B325" s="46"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="46"/>
       <c r="B326" s="46"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="46"/>
       <c r="B327" s="46"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="46"/>
       <c r="B328" s="46"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="46"/>
       <c r="B329" s="46"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="46"/>
       <c r="B330" s="46"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="46"/>
       <c r="B331" s="46"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="46"/>
       <c r="B332" s="46"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="46"/>
       <c r="B333" s="46"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="46"/>
       <c r="B334" s="46"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="46"/>
       <c r="B335" s="46"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="46"/>
       <c r="B336" s="46"/>
     </row>
